--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/71/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/71/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.2616261626162616</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1591.591591591592</v>
+        <v>666.6366636663666</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07787787787787788</v>
+        <v>0.01499149914991499</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6996996996996997</v>
+        <v>0.3249324932493249</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1671.671671671672</v>
+        <v>662.2662266226623</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>788.7887887887889</v>
+        <v>477.8577857785779</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>521.5215215215215</v>
+        <v>125.4878487848785</v>
       </c>
     </row>
   </sheetData>
